--- a/code/maxent parameter2.xlsx
+++ b/code/maxent parameter2.xlsx
@@ -1460,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -2336,7 +2336,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="70.2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>193</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="210.6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" ht="93.6" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>194</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="117" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" ht="70.2" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>195</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="117" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" ht="70.2" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>195</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="117" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" ht="70.2" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>195</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="117" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" ht="70.2" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>195</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="397.8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" ht="257.39999999999998" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>196</v>
       </c>
